--- a/data/trans_orig/P14B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D531AFA6-E1E3-4BE5-B999-D99A2D83825D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8461CF82-31E5-443E-943E-0505C819E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3789B1A-E0DF-4E1C-BAD7-26771264E1BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92426AF1-81EF-491E-845E-00C2E2E8BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="158">
   <si>
     <t>Población cuya úlcera de estómago le limita en 2012 (Tasa respuesta: 1,14%)</t>
   </si>
@@ -123,7 +123,7 @@
     <t>13,97%</t>
   </si>
   <si>
-    <t>86,0%</t>
+    <t>85,82%</t>
   </si>
   <si>
     <t>46,93%</t>
@@ -138,7 +138,7 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>14,0%</t>
+    <t>14,18%</t>
   </si>
   <si>
     <t>86,03%</t>
@@ -150,55 +150,49 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>58,52%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -210,151 +204,151 @@
     <t>39,63%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>6,6%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>82,97%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -393,19 +387,19 @@
     <t>50,08%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>45,05%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>68,02%</t>
@@ -414,121 +408,109 @@
     <t>49,92%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>21,85%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>78,15%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
 </sst>
 </file>
@@ -940,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6834C94-3100-4A60-A998-75DCF6DD4A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53E05EA-72C3-409C-AAC0-62891A832871}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1556,10 +1538,10 @@
         <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1556,13 @@
         <v>10352</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1589,13 +1571,13 @@
         <v>4236</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1604,13 +1586,13 @@
         <v>14588</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1648,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1684,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1693,13 +1675,13 @@
         <v>4241</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1708,13 +1690,13 @@
         <v>4241</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,7 +1714,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -1744,13 +1726,13 @@
         <v>6459</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1759,13 +1741,13 @@
         <v>11832</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,7 +1803,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1833,13 +1815,13 @@
         <v>7385</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1848,13 +1830,13 @@
         <v>9813</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -1863,13 +1845,13 @@
         <v>17198</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1866,13 @@
         <v>7448</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1899,13 +1881,13 @@
         <v>6308</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -1914,13 +1896,13 @@
         <v>13756</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1970,13 @@
         <v>11605</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -2003,13 +1985,13 @@
         <v>20297</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2018,13 +2000,13 @@
         <v>31902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2021,13 @@
         <v>26832</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2054,13 +2036,13 @@
         <v>21817</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -2069,13 +2051,13 @@
         <v>48649</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2113,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30A99A1-28E2-4BEA-B268-818BF83315C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A769F7E-DF9A-4310-AD17-322E2C87967D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2170,7 +2152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2441,7 +2423,7 @@
         <v>922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2456,13 +2438,13 @@
         <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,7 +2474,7 @@
         <v>1892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -2507,10 +2489,10 @@
         <v>3260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2587,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2617,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2617,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2665,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -2757,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2772,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2820,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2879,7 +2861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2891,7 +2873,7 @@
         <v>1066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -2906,13 +2888,13 @@
         <v>4342</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2921,13 +2903,13 @@
         <v>5408</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2924,7 @@
         <v>2267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -2957,13 +2939,13 @@
         <v>4328</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2972,13 +2954,13 @@
         <v>6595</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3016,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3046,13 +3028,13 @@
         <v>1671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3061,13 +3043,13 @@
         <v>6178</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3076,13 +3058,13 @@
         <v>7850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,10 +3079,10 @@
         <v>2989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3112,13 +3094,13 @@
         <v>9025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3127,13 +3109,13 @@
         <v>12013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3183,13 @@
         <v>2737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3216,13 +3198,13 @@
         <v>13434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3231,13 +3213,13 @@
         <v>16171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3234,13 @@
         <v>12512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3267,13 +3249,13 @@
         <v>20832</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -3282,13 +3264,13 @@
         <v>33344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3326,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8461CF82-31E5-443E-943E-0505C819E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8A9887-549E-46AE-83FF-7F7D915DA8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92426AF1-81EF-491E-845E-00C2E2E8BC59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDD13AAE-7610-494D-B991-4C030BC4F25D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="164">
   <si>
     <t>Población cuya úlcera de estómago le limita en 2012 (Tasa respuesta: 1,14%)</t>
   </si>
@@ -120,10 +120,10 @@
     <t>43,43%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>46,93%</t>
@@ -138,10 +138,10 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -150,49 +150,55 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>58,52%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>41,48%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -204,19 +210,19 @@
     <t>39,63%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -225,19 +231,19 @@
     <t>60,37%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -246,115 +252,115 @@
     <t>49,78%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población cuya úlcera de estómago le limita en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>32,78%</t>
@@ -387,19 +393,19 @@
     <t>50,08%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>45,05%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
   </si>
   <si>
     <t>68,02%</t>
@@ -408,109 +414,121 @@
     <t>49,92%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
+    <t>79,11%</t>
+  </si>
+  <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
+    <t>20,89%</t>
+  </si>
+  <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>21,85%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>78,15%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53E05EA-72C3-409C-AAC0-62891A832871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6965C2-4A57-4932-81B2-C4519BA7F1F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,10 +1556,10 @@
         <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,13 +1574,13 @@
         <v>10352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1571,13 +1589,13 @@
         <v>4236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1586,13 +1604,13 @@
         <v>14588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,7 +1666,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1666,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1675,13 +1693,13 @@
         <v>4241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1690,13 +1708,13 @@
         <v>4241</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1732,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -1726,13 +1744,13 @@
         <v>6459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1741,13 +1759,13 @@
         <v>11832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,7 +1821,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1815,13 +1833,13 @@
         <v>7385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1830,13 +1848,13 @@
         <v>9813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -1845,13 +1863,13 @@
         <v>17198</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1884,13 @@
         <v>7448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1881,13 +1899,13 @@
         <v>6308</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -1896,13 +1914,13 @@
         <v>13756</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1988,13 @@
         <v>11605</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -1985,13 +2003,13 @@
         <v>20297</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -2000,13 +2018,13 @@
         <v>31902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2039,13 @@
         <v>26832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2036,13 +2054,13 @@
         <v>21817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>45</v>
@@ -2051,13 +2069,13 @@
         <v>48649</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2131,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A769F7E-DF9A-4310-AD17-322E2C87967D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE48457-C96F-42E3-B11B-0096043359CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2152,7 +2170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2423,7 +2441,7 @@
         <v>922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2438,13 +2456,13 @@
         <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,7 +2492,7 @@
         <v>1892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -2489,10 +2507,10 @@
         <v>3260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2569,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2599,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2647,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -2739,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2754,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2802,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2861,7 +2879,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2873,7 +2891,7 @@
         <v>1066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -2888,13 +2906,13 @@
         <v>4342</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2903,13 +2921,13 @@
         <v>5408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2942,7 @@
         <v>2267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -2939,13 +2957,13 @@
         <v>4328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2954,13 +2972,13 @@
         <v>6595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3034,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3028,13 +3046,13 @@
         <v>1671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3043,13 +3061,13 @@
         <v>6178</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3058,13 +3076,13 @@
         <v>7850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,10 +3097,10 @@
         <v>2989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3094,13 +3112,13 @@
         <v>9025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3109,13 +3127,13 @@
         <v>12013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3201,13 @@
         <v>2737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3198,13 +3216,13 @@
         <v>13434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3213,13 +3231,13 @@
         <v>16171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3252,13 @@
         <v>12512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3249,13 +3267,13 @@
         <v>20832</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -3264,13 +3282,13 @@
         <v>33344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3344,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
